--- a/Running projects/Rahmat Shipping Karachi/REHMAT SHIPPING_HVAC BOQ VRF_19-02-20241.xlsx
+++ b/Running projects/Rahmat Shipping Karachi/REHMAT SHIPPING_HVAC BOQ VRF_19-02-20241.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xls\Sent BOQ\Rahmat Shipping Karachi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Rahmat Shipping Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53FD55E-3FA0-442F-BBDC-2113BA4B9A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B5B68E-919A-4130-B860-11C4D26A984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4285,8 +4285,8 @@
   <sheetPr codeName="Sheet7121"/>
   <dimension ref="A1:BO75"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
